--- a/src/main/resources/time_problem.xlsx
+++ b/src/main/resources/time_problem.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhushuai/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhushuai/Documents/GitRepo/mine/problem/EasyExcelProblem/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61993122-0751-AB48-901D-B7D5E94DFF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9CF8BC-A6E2-304B-A648-6F5B389D3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>tinyint_field</t>
   </si>
@@ -413,11 +413,12 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="8" max="8" width="12.1640625" customWidth="1"/>
     <col min="11" max="11" width="11.5"/>
     <col min="12" max="12" width="20"/>
     <col min="13" max="13" width="20" customWidth="1"/>
@@ -502,7 +503,7 @@
         <v>-1.123456</v>
       </c>
       <c r="H2">
-        <v>-2.1244999999999998</v>
+        <v>3.1234567891234502</v>
       </c>
       <c r="I2">
         <v>6.123456</v>
@@ -536,60 +537,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>9223372036854780</v>
-      </c>
-      <c r="G3">
-        <v>-1.123456</v>
-      </c>
-      <c r="H3">
-        <v>-2.1244999999999998</v>
-      </c>
-      <c r="I3">
-        <v>6.123456</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.42054398148148148</v>
-      </c>
-      <c r="K3" s="2">
-        <v>44893</v>
-      </c>
-      <c r="L3" s="3">
-        <v>44893.420659722222</v>
-      </c>
-      <c r="M3" s="3">
-        <v>44893.420694444401</v>
-      </c>
-      <c r="N3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>22</v>
-      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/time_problem.xlsx
+++ b/src/main/resources/time_problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhushuai/Documents/GitRepo/mine/problem/EasyExcelProblem/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9CF8BC-A6E2-304B-A648-6F5B389D3B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96F6D4B-2C4C-D646-8D23-E82DB36FE5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="12420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
